--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B22DA-0BFC-4037-BDF5-1BDE2A88B5C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FD8476-49D8-43A5-BA14-454868172B59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="ステータス">リスト!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -545,10 +546,7 @@
   <si>
     <t>シミュレーション明細とコード種類、コード値のテーブルを追加する</t>
     <rPh sb="8" eb="10">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツイカ</t>
+      <t>メイサイツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,10 +629,7 @@
       <t>メイサイ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
+      <t>トウロクツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -725,10 +720,7 @@
       <t>メイサイ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ツイカ</t>
+      <t>ケッカツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1037,14 +1029,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1775,7 +1760,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -2064,10 +2049,10 @@
         <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4">
         <v>2.5</v>
@@ -2082,7 +2067,9 @@
       <c r="M6" s="17">
         <v>44321</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="17">
+        <v>44321</v>
+      </c>
       <c r="O6" s="17"/>
       <c r="P6" s="5" t="str">
         <f t="shared" ref="P6" si="1">C6&amp;"　"&amp;D6&amp;"　"&amp;E6&amp;"　"&amp;F6</f>
@@ -7745,187 +7732,187 @@
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 C7:H10 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 J7:K10 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27">
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I7:I10 C6:O6">
-    <cfRule type="expression" dxfId="52" priority="59">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>$G6="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11 B13:B15 B17 B19 B21 B23 B25 B27:B52">
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="50" priority="57">
       <formula>$G6="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 C12:H12 E13 J12:K12 N12:O12">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>$G12="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>$G12="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16 C16 F16:H16 J16:K16 N16:O16">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>$G16="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>$G16="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18 G18:H18 J18:K18 N18:O18">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>$G18="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>$G18="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 C20 G20:H20 J20:K20 N20:O20">
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="43" priority="48">
       <formula>$G20="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>$G20="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 C22 G22:H22 J22:K22 N22:O22">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="41" priority="46">
       <formula>$G22="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="41" priority="45">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>$G22="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 C24 G24:H24 J24:K24 M24:O24">
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="39" priority="44">
       <formula>$G24="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>$G24="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$G16="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$G18="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>$G20="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>$G22="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$G24="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$G22="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26 G26:H26 C26 J26:O26">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$G26="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$G26="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$G26="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$G12="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$G7="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$G7="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$G8="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$G8="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$G9="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$G9="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$G10="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$G10="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$G11="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$G11="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L17">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$G12="終了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M13">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$G12="終了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FD8476-49D8-43A5-BA14-454868172B59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00685EB-117C-443B-8002-812A3F73AA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="7470" windowWidth="28900" windowHeight="10670" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="ステータス">リスト!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1760,7 +1759,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -2049,15 +2048,17 @@
         <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4">
         <v>2.5</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
       <c r="K6" s="17">
         <v>44320</v>
       </c>
@@ -2070,7 +2071,9 @@
       <c r="N6" s="17">
         <v>44321</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="17">
+        <v>44323</v>
+      </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ref="P6" si="1">C6&amp;"　"&amp;D6&amp;"　"&amp;E6&amp;"　"&amp;F6</f>
         <v>STEP01　一通り作成　構成を整える　テーブルの拡充　種類と株式市場、株銘柄のテーブル追加と既存の関連付けをする</v>
@@ -7731,12 +7734,12 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 C7:H10 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 J7:K10 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 C7:H10 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 J7:K10 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6 I7:I10 C6:O6">
+  <conditionalFormatting sqref="A6 I7:I10 C6:F6 I6:O6">
     <cfRule type="expression" dxfId="51" priority="59">
       <formula>$G6="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00685EB-117C-443B-8002-812A3F73AA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176654DF-3399-430B-94C1-ABDAECD44B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="7470" windowWidth="28900" windowHeight="10670" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -1682,10 +1682,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1759,22 +1759,22 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="112.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="112.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="17">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="L6" s="17">
         <v>44321</v>
@@ -2099,17 +2099,19 @@
         <v>47</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I7" s="4">
         <v>2.5</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>3.5</v>
+      </c>
       <c r="K7" s="17">
-        <v>44320</v>
+        <v>44324</v>
       </c>
       <c r="L7" s="17">
         <v>44321</v>
@@ -2117,8 +2119,12 @@
       <c r="M7" s="17">
         <v>44321</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="17">
+        <v>44324</v>
+      </c>
+      <c r="O7" s="17">
+        <v>44324</v>
+      </c>
       <c r="P7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　構成を整える　GUI　JavaFXでGUIを作成する</v>
@@ -7734,7 +7740,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 C7:H10 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 J7:K10 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>
@@ -8015,9 +8021,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176654DF-3399-430B-94C1-ABDAECD44B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4985C4F8-61CE-42AF-AAC9-7CFB69A14B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1759,7 +1759,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2150,15 +2150,17 @@
         <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4">
         <v>2.5</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>1.25</v>
+      </c>
       <c r="K8" s="17">
         <v>44320</v>
       </c>
@@ -2168,8 +2170,12 @@
       <c r="M8" s="17">
         <v>44324</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="17">
+        <v>44324</v>
+      </c>
+      <c r="O8" s="17">
+        <v>44324</v>
+      </c>
       <c r="P8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　構成を整える　例外処理　例外処理を作成する</v>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4985C4F8-61CE-42AF-AAC9-7CFB69A14B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8762ACDC-5FA2-4A7C-87DF-AAA25B7981EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6070" yWindow="2910" windowWidth="26590" windowHeight="12660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -1755,11 +1755,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2201,15 +2201,17 @@
         <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I9" s="4">
         <v>2.5</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
       <c r="K9" s="17">
         <v>44320</v>
       </c>
@@ -2219,8 +2221,12 @@
       <c r="M9" s="17">
         <v>44324</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="N9" s="17">
+        <v>44325</v>
+      </c>
+      <c r="O9" s="17">
+        <v>44327</v>
+      </c>
       <c r="P9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　構成を整える　一連の流れ　一連の流れを作成する</v>
@@ -2246,15 +2252,17 @@
         <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I10" s="4">
         <v>2.5</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
       <c r="K10" s="17">
         <v>44320</v>
       </c>
@@ -2264,8 +2272,12 @@
       <c r="M10" s="17">
         <v>44325</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="17">
+        <v>44328</v>
+      </c>
+      <c r="O10" s="17">
+        <v>44329</v>
+      </c>
       <c r="P10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　構成を整える　一連の流れ　ログを出力する</v>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8762ACDC-5FA2-4A7C-87DF-AAA25B7981EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31CB6E-1B71-4807-93F0-AF9944337B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6070" yWindow="2910" windowWidth="26590" windowHeight="12660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -1759,7 +1759,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2303,15 +2303,17 @@
         <v>55</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4">
         <v>4</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
       <c r="K11" s="17">
         <v>44320</v>
       </c>
@@ -2321,8 +2323,12 @@
       <c r="M11" s="17">
         <v>44325</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="17">
+        <v>44330</v>
+      </c>
+      <c r="O11" s="17">
+        <v>44331</v>
+      </c>
       <c r="P11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　構成を整える　JUnitの準備　Junitで一連の流れのテストの枠を作成する</v>
@@ -7758,7 +7764,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 C11:K11 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31CB6E-1B71-4807-93F0-AF9944337B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F525F-FC0E-46C5-B550-9A49BAE09BD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1755,11 +1755,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2354,15 +2354,17 @@
         <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>3.5</v>
+      </c>
       <c r="K12" s="17">
         <v>44320</v>
       </c>
@@ -2372,8 +2374,12 @@
       <c r="M12" s="17">
         <v>44331</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="N12" s="17">
+        <v>44332</v>
+      </c>
+      <c r="O12" s="17">
+        <v>44332</v>
+      </c>
       <c r="P12" s="5" t="str">
         <f t="shared" ref="P12" si="2">C12&amp;"　"&amp;D12&amp;"　"&amp;E12&amp;"　"&amp;F12</f>
         <v>STEP01　一通り作成　TSSTSの実装　週足と月足　週足と月足のテーブルを追加し、インポート処理を拡充する</v>
@@ -7764,7 +7770,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H12">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>
@@ -7779,7 +7785,7 @@
       <formula>$G6="終了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12 C12:H12 E13 J12:K12 N12:O12">
+  <conditionalFormatting sqref="A12 C12:F12 E13 J12:K12 N12:O12">
     <cfRule type="expression" dxfId="49" priority="54">
       <formula>$G12="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F525F-FC0E-46C5-B550-9A49BAE09BD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7978A48F-08E7-4001-9880-43DF93477041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1755,11 +1755,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12:H12"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2450,15 +2450,17 @@
         <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I14" s="4">
         <v>2.5</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>1.25</v>
+      </c>
       <c r="K14" s="17">
         <v>44320</v>
       </c>
@@ -2468,8 +2470,12 @@
       <c r="M14" s="17">
         <v>44332</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="N14" s="17">
+        <v>44333</v>
+      </c>
+      <c r="O14" s="17">
+        <v>44333</v>
+      </c>
       <c r="P14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　TSSTSの実装　テーブルの追加　シミュレーション明細とコード種類、コード値のテーブルを追加する</v>
@@ -7770,7 +7776,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 C14:K15 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H12">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H12 C14:K15">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7978A48F-08E7-4001-9880-43DF93477041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49EA9-1D01-4DE8-999F-415669A7D3CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,52 +768,53 @@
     <t>#4073</t>
   </si>
   <si>
+    <t>#4075</t>
+  </si>
+  <si>
+    <t>#4076</t>
+  </si>
+  <si>
+    <t>#4077</t>
+  </si>
+  <si>
+    <t>#4078</t>
+  </si>
+  <si>
+    <t>#4079</t>
+  </si>
+  <si>
+    <t>#4080</t>
+  </si>
+  <si>
+    <t>#4081</t>
+  </si>
+  <si>
+    <t>#4082</t>
+  </si>
+  <si>
+    <t>#4083</t>
+  </si>
+  <si>
+    <t>#4084</t>
+  </si>
+  <si>
+    <t>#4085</t>
+  </si>
+  <si>
+    <t>#4086</t>
+  </si>
+  <si>
+    <t>#4087</t>
+  </si>
+  <si>
+    <t>#4088</t>
+  </si>
+  <si>
+    <t>#4089</t>
+  </si>
+  <si>
     <t>#4074</t>
-  </si>
-  <si>
-    <t>#4075</t>
-  </si>
-  <si>
-    <t>#4076</t>
-  </si>
-  <si>
-    <t>#4077</t>
-  </si>
-  <si>
-    <t>#4078</t>
-  </si>
-  <si>
-    <t>#4079</t>
-  </si>
-  <si>
-    <t>#4080</t>
-  </si>
-  <si>
-    <t>#4081</t>
-  </si>
-  <si>
-    <t>#4082</t>
-  </si>
-  <si>
-    <t>#4083</t>
-  </si>
-  <si>
-    <t>#4084</t>
-  </si>
-  <si>
-    <t>#4085</t>
-  </si>
-  <si>
-    <t>#4086</t>
-  </si>
-  <si>
-    <t>#4087</t>
-  </si>
-  <si>
-    <t>#4088</t>
-  </si>
-  <si>
-    <t>#4089</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1759,7 +1760,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2387,7 +2388,7 @@
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B13" s="12">
         <v>11</v>
@@ -2405,10 +2406,10 @@
         <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="4">
         <v>2.5</v>
@@ -2423,7 +2424,9 @@
       <c r="M13" s="17">
         <v>44331</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="17">
+        <v>44337</v>
+      </c>
       <c r="O13" s="17"/>
       <c r="P13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="12">
         <v>12</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="12">
         <v>13</v>
@@ -2501,10 +2504,10 @@
         <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="15">
         <v>2.5</v>
@@ -2519,7 +2522,9 @@
       <c r="M15" s="17">
         <v>44332</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="17">
+        <v>44334</v>
+      </c>
       <c r="O15" s="17"/>
       <c r="P15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2528,7 +2533,7 @@
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="12">
         <v>11</v>
@@ -2573,7 +2578,7 @@
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2618,7 +2623,7 @@
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="12">
         <v>11</v>
@@ -2663,7 +2668,7 @@
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="12">
         <v>15</v>
@@ -2708,7 +2713,7 @@
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="12">
         <v>11</v>
@@ -2753,7 +2758,7 @@
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="12">
         <v>16</v>
@@ -2798,7 +2803,7 @@
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="12">
         <v>11</v>
@@ -2843,7 +2848,7 @@
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="12">
         <v>17</v>
@@ -2888,7 +2893,7 @@
     </row>
     <row r="24" spans="1:16" s="5" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="12">
         <v>11</v>
@@ -2933,7 +2938,7 @@
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="12">
         <v>18</v>
@@ -2978,7 +2983,7 @@
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="12">
         <v>11</v>
@@ -3023,7 +3028,7 @@
     </row>
     <row r="27" spans="1:16" s="5" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="12">
         <v>19</v>
@@ -3068,7 +3073,7 @@
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="12">
         <v>20</v>
@@ -7776,7 +7781,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H12 C14:K15">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 C14:K15 G12:H13">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49EA9-1D01-4DE8-999F-415669A7D3CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E13B113-A6DD-40C0-BFFF-ED64818FD066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -2504,15 +2504,17 @@
         <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I15" s="15">
         <v>2.5</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>50</v>
+      </c>
       <c r="K15" s="17">
         <v>44320</v>
       </c>
@@ -2525,7 +2527,9 @@
       <c r="N15" s="17">
         <v>44334</v>
       </c>
-      <c r="O15" s="17"/>
+      <c r="O15" s="17">
+        <v>44381</v>
+      </c>
       <c r="P15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　TSSTSの実装　準備処理　MACDヒストグラム、勢力指数の２日ＥＭＡなどのデータを作成する</v>
@@ -7781,7 +7785,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 C14:K15 G12:H13">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H13 C14:K15">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E13B113-A6DD-40C0-BFFF-ED64818FD066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B29FE-F21E-4021-866E-5D733033F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="110">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -814,6 +814,28 @@
   </si>
   <si>
     <t>#4074</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入ＳＱＬのツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4121</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1760,7 +1782,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -1769,7 +1791,7 @@
     <col min="2" max="2" width="6.69140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.15234375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6.69140625" bestFit="1" customWidth="1"/>
@@ -3121,32 +3143,50 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="B29" s="12">
         <v>21</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="I29" s="4">
+        <v>50</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="17">
-        <v>44320</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+        <v>44396</v>
+      </c>
+      <c r="L29" s="17">
+        <v>44382</v>
+      </c>
+      <c r="M29" s="17">
+        <v>44402</v>
+      </c>
+      <c r="N29" s="17">
+        <v>44382</v>
+      </c>
       <c r="O29" s="17"/>
       <c r="P29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>　　　</v>
+        <v>STEP01　一通り作成　ツールの作成　挿入ＳＱＬのツール　作成</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1">
@@ -7785,7 +7825,7 @@
   </sheetData>
   <autoFilter ref="A1:O259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 C28:O52 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H13 C14:K15">
+  <conditionalFormatting sqref="A2:O5 A53:O1008 A7:A11 A13:A15 C17:K17 A17 A19 C19:H19 C21:H21 A21 A23 C23:H23 C25:H25 A25 C13:D13 F13:K13 E16 E18:F18 E20:F20 F22 E24:F24 A27:A52 E26:F26 J19:K19 C27:H27 J27:K27 J25:K25 J23:K23 J21:K21 I16:I27 N7:O11 N13:O15 N17:O17 N19:O19 N21:O21 N23:O23 N25:O25 N27:O27 G6:H6 J7:K10 C7:H10 C11:K11 G12:H13 C14:K15 C28:O52">
     <cfRule type="expression" dxfId="52" priority="60">
       <formula>$G2="終了"</formula>
     </cfRule>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B29FE-F21E-4021-866E-5D733033F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD4B91-D551-4158-960A-9C8AE7EE3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -836,6 +836,13 @@
   </si>
   <si>
     <t>#4121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーションのデータ取得</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1782,7 +1789,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="A35:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -3194,28 +3201,44 @@
       <c r="B30" s="12">
         <v>22</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="G30" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="I30" s="4">
+        <v>10</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="17">
-        <v>44310</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+        <v>44412</v>
+      </c>
+      <c r="L30" s="17">
+        <v>44412</v>
+      </c>
+      <c r="M30" s="17">
+        <v>44418</v>
+      </c>
+      <c r="N30" s="17">
+        <v>44412</v>
+      </c>
       <c r="O30" s="17"/>
       <c r="P30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>　　　</v>
+        <v>STEP01　一通り作成　TSSTSの実装　本処理　シミュレーションのデータ取得</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1">

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD4B91-D551-4158-960A-9C8AE7EE3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40722965-695F-49BE-9505-78DA808F0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1789,7 +1789,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="A35:G36"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -3214,10 +3214,10 @@
         <v>110</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I30" s="4">
         <v>10</v>
@@ -3235,7 +3235,9 @@
       <c r="N30" s="17">
         <v>44412</v>
       </c>
-      <c r="O30" s="17"/>
+      <c r="O30" s="17">
+        <v>44432</v>
+      </c>
       <c r="P30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　TSSTSの実装　本処理　シミュレーションのデータ取得</v>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40722965-695F-49BE-9505-78DA808F0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E92DFA-C3E7-4CD3-A95F-B3DF95A5EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -843,6 +843,24 @@
     <rPh sb="12" eb="14">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンの全体像を作成する</t>
+    <rPh sb="6" eb="9">
+      <t>ゼンタイゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4123</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1785,11 +1803,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30:H30"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -3197,7 +3215,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B30" s="12">
         <v>22</v>
       </c>
@@ -3224,7 +3244,7 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="17">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="L30" s="17">
         <v>44412</v>
@@ -3244,32 +3264,50 @@
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="B31" s="12">
         <v>23</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="I31" s="4">
+        <v>50</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="17">
-        <v>44310</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+        <v>44432</v>
+      </c>
+      <c r="L31" s="17">
+        <v>44432</v>
+      </c>
+      <c r="M31" s="17">
+        <v>44463</v>
+      </c>
+      <c r="N31" s="17">
+        <v>44432</v>
+      </c>
       <c r="O31" s="17"/>
       <c r="P31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>　　　</v>
+        <v>STEP01　一通り作成　TSSTSの実装　本処理　スクリーンの全体像を作成する</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1">

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E92DFA-C3E7-4CD3-A95F-B3DF95A5EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC4785-B5DD-4FB2-BC0E-3E9B0CEF5C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1630" windowWidth="17940" windowHeight="17960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -861,6 +861,31 @@
   </si>
   <si>
     <t>#4123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーショントランザクションモデルを作成する</t>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利確を実装する</t>
+    <rPh sb="0" eb="2">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4127</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4128</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1803,11 +1828,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -1970,7 +1995,7 @@
         <v>44315</v>
       </c>
       <c r="P3" s="5" t="str">
-        <f t="shared" ref="P3:P32" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
+        <f t="shared" ref="P3:P33" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
         <v>STEP01　一通り作成　株価ファイルの読み込み　テーブルへの挿入　テーブルの設計書を作成</v>
       </c>
     </row>
@@ -3311,60 +3336,96 @@
       </c>
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B32" s="12">
         <v>24</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4">
+        <v>2.5</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="17">
-        <v>44310</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+        <v>44569</v>
+      </c>
+      <c r="L32" s="17">
+        <v>44569</v>
+      </c>
+      <c r="M32" s="17">
+        <v>44571</v>
+      </c>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="P32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>　　　</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="5" customFormat="1">
-      <c r="A33" s="4"/>
+        <v>STEP01　一通り作成　TSSTSの実装　本処理　シミュレーショントランザクションモデルを作成する</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="B33" s="12">
         <v>25</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4">
+        <v>2.5</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="17">
-        <v>44310</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+        <v>44569</v>
+      </c>
+      <c r="L33" s="17">
+        <v>44569</v>
+      </c>
+      <c r="M33" s="17">
+        <v>44571</v>
+      </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="1:15" s="5" customFormat="1">
+      <c r="P33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>STEP01　一通り作成　TSSTSの実装　本処理　利確を実装する</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="5" customFormat="1">
       <c r="A34" s="4"/>
       <c r="B34" s="12">
         <v>26</v>
@@ -3389,7 +3450,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1">
+    <row r="35" spans="1:16" s="5" customFormat="1">
       <c r="A35" s="4"/>
       <c r="B35" s="12">
         <v>27</v>
@@ -3414,7 +3475,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1">
+    <row r="36" spans="1:16" s="5" customFormat="1">
       <c r="A36" s="4"/>
       <c r="B36" s="12">
         <v>28</v>
@@ -3439,7 +3500,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1">
+    <row r="37" spans="1:16" s="5" customFormat="1">
       <c r="A37" s="4"/>
       <c r="B37" s="12">
         <v>29</v>
@@ -3464,7 +3525,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1">
+    <row r="38" spans="1:16" s="5" customFormat="1">
       <c r="A38" s="4"/>
       <c r="B38" s="12">
         <v>30</v>
@@ -3489,7 +3550,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1">
+    <row r="39" spans="1:16" s="5" customFormat="1">
       <c r="A39" s="4"/>
       <c r="B39" s="12">
         <v>31</v>
@@ -3514,7 +3575,7 @@
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1">
+    <row r="40" spans="1:16" s="5" customFormat="1">
       <c r="A40" s="4"/>
       <c r="B40" s="12">
         <v>32</v>
@@ -3539,7 +3600,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1">
+    <row r="41" spans="1:16" s="5" customFormat="1">
       <c r="A41" s="4"/>
       <c r="B41" s="12">
         <v>33</v>
@@ -3564,7 +3625,7 @@
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" s="5" customFormat="1">
+    <row r="42" spans="1:16" s="5" customFormat="1">
       <c r="A42" s="4"/>
       <c r="B42" s="12">
         <v>34</v>
@@ -3589,7 +3650,7 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1">
+    <row r="43" spans="1:16" s="5" customFormat="1">
       <c r="A43" s="4"/>
       <c r="B43" s="12">
         <v>35</v>
@@ -3614,7 +3675,7 @@
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1">
+    <row r="44" spans="1:16" s="5" customFormat="1">
       <c r="A44" s="4"/>
       <c r="B44" s="12">
         <v>36</v>
@@ -3639,7 +3700,7 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1">
+    <row r="45" spans="1:16" s="5" customFormat="1">
       <c r="A45" s="4"/>
       <c r="B45" s="12">
         <v>37</v>
@@ -3664,7 +3725,7 @@
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1">
+    <row r="46" spans="1:16" s="5" customFormat="1">
       <c r="A46" s="4"/>
       <c r="B46" s="12">
         <v>38</v>
@@ -3689,7 +3750,7 @@
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1">
+    <row r="47" spans="1:16" s="5" customFormat="1">
       <c r="A47" s="4"/>
       <c r="B47" s="12">
         <v>39</v>
@@ -3714,7 +3775,7 @@
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1">
+    <row r="48" spans="1:16" s="5" customFormat="1">
       <c r="A48" s="4"/>
       <c r="B48" s="12">
         <v>40</v>

--- a/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/AA010020_ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC4785-B5DD-4FB2-BC0E-3E9B0CEF5C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524743C-E53E-4917-A6E6-EF8D39995A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1630" windowWidth="17940" windowHeight="17960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="121">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -886,6 +886,42 @@
   </si>
   <si>
     <t>#4128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <rPh sb="0" eb="2">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト間の整理（第１弾の残部分の整備）</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4130</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1828,11 +1864,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="20"/>
@@ -1995,7 +2031,7 @@
         <v>44315</v>
       </c>
       <c r="P3" s="5" t="str">
-        <f t="shared" ref="P3:P33" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
+        <f t="shared" ref="P3:P34" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
         <v>STEP01　一通り作成　株価ファイルの読み込み　テーブルへの挿入　テーブルの設計書を作成</v>
       </c>
     </row>
@@ -3308,17 +3344,17 @@
         <v>112</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I31" s="4">
         <v>50</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="17">
-        <v>44432</v>
+        <v>44569</v>
       </c>
       <c r="L31" s="17">
         <v>44432</v>
@@ -3329,7 +3365,9 @@
       <c r="N31" s="17">
         <v>44432</v>
       </c>
-      <c r="O31" s="17"/>
+      <c r="O31" s="17">
+        <v>44569</v>
+      </c>
       <c r="P31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　TSSTSの実装　本処理　スクリーンの全体像を作成する</v>
@@ -3426,29 +3464,51 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="5" customFormat="1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="B34" s="12">
         <v>26</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4">
+        <v>2.5</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="17">
-        <v>44310</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+        <v>44569</v>
+      </c>
+      <c r="L34" s="17">
+        <v>44569</v>
+      </c>
+      <c r="M34" s="17">
+        <v>44571</v>
+      </c>
+      <c r="N34" s="17">
+        <v>44569</v>
+      </c>
       <c r="O34" s="17"/>
+      <c r="P34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>STEP01　一通り作成　TSSTSの実装　整理　プロジェクト間の整理（第１弾の残部分の整備）</v>
+      </c>
     </row>
     <row r="35" spans="1:16" s="5" customFormat="1">
       <c r="A35" s="4"/>
